--- a/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5857,13 +5857,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>19160</v>
+        <v>19161</v>
       </c>
       <c r="D107" t="n">
         <v>4015</v>
       </c>
       <c r="E107" t="n">
-        <v>90569683</v>
+        <v>90579683</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35429</v>
+        <v>35430</v>
       </c>
       <c r="D109" t="n">
         <v>3825</v>
       </c>
       <c r="E109" t="n">
-        <v>286125577</v>
+        <v>286145696</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>15386</v>
+        <v>15387</v>
       </c>
       <c r="D191" t="n">
         <v>2834</v>
       </c>
       <c r="E191" t="n">
-        <v>119164102</v>
+        <v>119280293</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10243,13 +10243,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28016</v>
+        <v>28017</v>
       </c>
       <c r="D193" t="n">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="E193" t="n">
-        <v>247669947</v>
+        <v>247800224</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>16865</v>
+        <v>16867</v>
       </c>
       <c r="D696" t="n">
         <v>2631</v>
       </c>
       <c r="E696" t="n">
-        <v>25928635</v>
+        <v>25929535</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17536</v>
+        <v>17541</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38564635</v>
+        <v>38583341</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36202,13 +36202,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>5251</v>
+        <v>5253</v>
       </c>
       <c r="D702" t="n">
         <v>745</v>
       </c>
       <c r="E702" t="n">
-        <v>15506389</v>
+        <v>15510059</v>
       </c>
       <c r="F702" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19691</v>
+        <v>19697</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56394544</v>
+        <v>56402512</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36457,13 +36457,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="D707" t="n">
         <v>1306</v>
       </c>
       <c r="E707" t="n">
-        <v>11507364</v>
+        <v>11511893</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36967,13 +36967,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>7752</v>
+        <v>7756</v>
       </c>
       <c r="D717" t="n">
         <v>1115</v>
       </c>
       <c r="E717" t="n">
-        <v>16740454</v>
+        <v>16748126</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17026661</v>
+        <v>17027467</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37324,13 +37324,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="D724" t="n">
         <v>448</v>
       </c>
       <c r="E724" t="n">
-        <v>6569152</v>
+        <v>6576697</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -39058,13 +39058,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>9850</v>
+        <v>9851</v>
       </c>
       <c r="D758" t="n">
         <v>1919</v>
       </c>
       <c r="E758" t="n">
-        <v>41261084</v>
+        <v>41287606</v>
       </c>
       <c r="F758" t="inlineStr">
         <is>
@@ -39211,13 +39211,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>20284</v>
+        <v>20285</v>
       </c>
       <c r="D761" t="n">
         <v>2479</v>
       </c>
       <c r="E761" t="n">
-        <v>67419503</v>
+        <v>67420734</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16730</v>
+        <v>16731</v>
       </c>
       <c r="D838" t="n">
         <v>3086</v>
       </c>
       <c r="E838" t="n">
-        <v>64756255</v>
+        <v>64799383</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17783</v>
+        <v>17784</v>
       </c>
       <c r="D842" t="n">
         <v>2366</v>
       </c>
       <c r="E842" t="n">
-        <v>135240787</v>
+        <v>135241339</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43495,13 +43495,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>25088</v>
+        <v>25089</v>
       </c>
       <c r="D845" t="n">
         <v>3136</v>
       </c>
       <c r="E845" t="n">
-        <v>90094527</v>
+        <v>90134841</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108525</v>
+        <v>108529</v>
       </c>
       <c r="D852" t="n">
         <v>19713</v>
       </c>
       <c r="E852" t="n">
-        <v>559195049</v>
+        <v>559270898</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182057</v>
+        <v>182067</v>
       </c>
       <c r="D854" t="n">
         <v>17492</v>
       </c>
       <c r="E854" t="n">
-        <v>1645887645</v>
+        <v>1646039861</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59985</v>
+        <v>59991</v>
       </c>
       <c r="D855" t="n">
         <v>9811</v>
       </c>
       <c r="E855" t="n">
-        <v>286251713</v>
+        <v>286480858</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183771</v>
+        <v>183783</v>
       </c>
       <c r="D858" t="n">
-        <v>35379</v>
+        <v>35380</v>
       </c>
       <c r="E858" t="n">
-        <v>551513929</v>
+        <v>551591600</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51263</v>
+        <v>51268</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>420853272</v>
+        <v>421752432</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114887</v>
+        <v>114895</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>417470831</v>
+        <v>417687577</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11656</v>
+        <v>11657</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54320077</v>
+        <v>54322777</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26092</v>
+        <v>26094</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>117679094</v>
+        <v>117928146</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -48544,13 +48544,13 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>9242</v>
+        <v>9245</v>
       </c>
       <c r="D944" t="n">
         <v>1551</v>
       </c>
       <c r="E944" t="n">
-        <v>50039225</v>
+        <v>50109919</v>
       </c>
       <c r="F944" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21927</v>
+        <v>21930</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>39904691</v>
+        <v>40006767</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19685</v>
+        <v>19695</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>65970654</v>
+        <v>65984473</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49360,13 +49360,13 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>7455</v>
+        <v>7457</v>
       </c>
       <c r="D960" t="n">
         <v>1870</v>
       </c>
       <c r="E960" t="n">
-        <v>16969326</v>
+        <v>17063682</v>
       </c>
       <c r="F960" t="inlineStr">
         <is>
@@ -49411,13 +49411,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>5342</v>
+        <v>5343</v>
       </c>
       <c r="D961" t="n">
         <v>1046</v>
       </c>
       <c r="E961" t="n">
-        <v>27691588</v>
+        <v>27693629</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -49564,13 +49564,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>7393</v>
+        <v>7396</v>
       </c>
       <c r="D964" t="n">
         <v>946</v>
       </c>
       <c r="E964" t="n">
-        <v>20466364</v>
+        <v>20644396</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13090</v>
+        <v>13094</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32919097</v>
+        <v>32950273</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11111</v>
+        <v>11114</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>43981007</v>
+        <v>43983889</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11063625</v>
+        <v>11065015</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -55735,13 +55735,13 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>8710</v>
+        <v>8711</v>
       </c>
       <c r="D1085" t="n">
         <v>944</v>
       </c>
       <c r="E1085" t="n">
-        <v>45718383</v>
+        <v>45740615</v>
       </c>
       <c r="F1085" t="inlineStr">
         <is>
@@ -56143,13 +56143,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>3661</v>
+        <v>3663</v>
       </c>
       <c r="D1093" t="n">
         <v>465</v>
       </c>
       <c r="E1093" t="n">
-        <v>9746743</v>
+        <v>9751711</v>
       </c>
       <c r="F1093" t="inlineStr">
         <is>
@@ -61702,13 +61702,13 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D1202" t="n">
         <v>126</v>
       </c>
       <c r="E1202" t="n">
-        <v>3130777</v>
+        <v>3152345</v>
       </c>
       <c r="F1202" t="inlineStr">
         <is>
@@ -77053,13 +77053,13 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>23421</v>
+        <v>23423</v>
       </c>
       <c r="D1503" t="n">
         <v>5554</v>
       </c>
       <c r="E1503" t="n">
-        <v>80095269</v>
+        <v>80106769</v>
       </c>
       <c r="F1503" t="inlineStr">
         <is>
@@ -79654,13 +79654,13 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>11708</v>
+        <v>11709</v>
       </c>
       <c r="D1554" t="n">
         <v>1237</v>
       </c>
       <c r="E1554" t="n">
-        <v>68381464</v>
+        <v>68385003</v>
       </c>
       <c r="F1554" t="inlineStr">
         <is>
@@ -82765,13 +82765,13 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>12801</v>
+        <v>12802</v>
       </c>
       <c r="D1615" t="n">
         <v>2909</v>
       </c>
       <c r="E1615" t="n">
-        <v>30216843</v>
+        <v>30365607</v>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
@@ -83071,13 +83071,13 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>71818</v>
+        <v>71819</v>
       </c>
       <c r="D1621" t="n">
         <v>7476</v>
       </c>
       <c r="E1621" t="n">
-        <v>410082727</v>
+        <v>410103658</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
@@ -85213,13 +85213,13 @@
         </is>
       </c>
       <c r="C1663" t="n">
-        <v>14300</v>
+        <v>14301</v>
       </c>
       <c r="D1663" t="n">
         <v>1689</v>
       </c>
       <c r="E1663" t="n">
-        <v>47672493</v>
+        <v>47708120</v>
       </c>
       <c r="F1663" t="inlineStr">
         <is>
